--- a/ID.xlsx
+++ b/ID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project\FPSProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595FC7D-A105-4301-96DA-97A27B5D0921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7F6FD-FD30-4799-9C04-72630560792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Knife</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>Axe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BareHand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +431,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -522,6 +526,9 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
